--- a/기획서 자료/일정표_초본.xlsx
+++ b/기획서 자료/일정표_초본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\깃허브\agari_Network\기획서 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608D4CA-032C-473C-B7B7-8E6E36CC57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A009B-C080-46F7-8D63-27900E347559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,6 +430,10 @@
   </si>
   <si>
     <t>클라이언트 최종 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet 구현 (Delay)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -675,6 +675,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +753,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,95 +855,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,21 +1175,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF00967C-B920-47A6-B500-9544B2CC20DD}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="7" width="28.19921875" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -1193,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1217,63 +1237,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="42" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="F5" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -1297,71 +1317,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="D10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="33"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>14</v>
@@ -1385,71 +1405,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="E13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="24"/>
+      <c r="B14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1473,69 +1493,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="20"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>28</v>
@@ -1559,191 +1579,189 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27" t="s">
-        <v>55</v>
+      <c r="C21" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="16" t="s">
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H12:H14"/>
@@ -1754,16 +1772,18 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서 자료/일정표_초본.xlsx
+++ b/기획서 자료/일정표_초본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\깃허브\agari_Network\기획서 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A009B-C080-46F7-8D63-27900E347559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608D4CA-032C-473C-B7B7-8E6E36CC57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bullet 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>선민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +434,6 @@
   </si>
   <si>
     <t>클라이언트 최종 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet 구현 (Delay)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -675,23 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -701,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,69 +736,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,38 +829,14 @@
     <xf numFmtId="41" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,21 +1155,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF00967C-B920-47A6-B500-9544B2CC20DD}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="7" width="28.19921875" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -1213,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1237,63 +1217,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -1317,71 +1297,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="24"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>14</v>
@@ -1405,71 +1385,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1493,69 +1473,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C18" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="6" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="33"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>28</v>
@@ -1579,189 +1559,191 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="31"/>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="43" t="s">
-        <v>54</v>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="16" t="s">
+      <c r="C35" t="s">
         <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H12:H14"/>
@@ -1772,18 +1754,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
